--- a/lab3/1.xlsx
+++ b/lab3/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volod\CLionProjects\mipt_lpr_cpplessons_term2\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D2D38E-1C09-4F4F-90B2-60CE4CBAFCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BD0653-BC22-4241-ADB2-EC979C16F9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{87D49F27-CB21-4899-84BA-4D1AA2F5ABB4}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -453,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="D4" s="1">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="E4" s="1">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1">
-        <v>13</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>33</v>
       </c>
       <c r="B5" s="1">
-        <v>23</v>
+        <v>529</v>
       </c>
       <c r="C5" s="1">
-        <v>21</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1">
-        <v>21</v>
+        <v>441</v>
       </c>
       <c r="E5" s="1">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="F5" s="1">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>43</v>
       </c>
       <c r="B6" s="1">
-        <v>23</v>
+        <v>529</v>
       </c>
       <c r="C6" s="1">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="D6" s="1">
-        <v>28</v>
+        <v>784</v>
       </c>
       <c r="E6" s="1">
-        <v>23</v>
+        <v>529</v>
       </c>
       <c r="F6" s="1">
-        <v>26</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>53</v>
       </c>
       <c r="B7" s="1">
-        <v>33</v>
+        <v>1089</v>
       </c>
       <c r="C7" s="1">
-        <v>29</v>
+        <v>841</v>
       </c>
       <c r="D7" s="1">
-        <v>37</v>
+        <v>1369</v>
       </c>
       <c r="E7" s="1">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="F7" s="1">
-        <v>36</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>63</v>
       </c>
       <c r="B8" s="1">
-        <v>41</v>
+        <v>1681</v>
       </c>
       <c r="C8" s="1">
-        <v>44</v>
+        <v>1936</v>
       </c>
       <c r="D8" s="1">
-        <v>35</v>
+        <v>1225</v>
       </c>
       <c r="E8" s="1">
-        <v>42</v>
+        <v>1764</v>
       </c>
       <c r="F8" s="1">
-        <v>40</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>73</v>
       </c>
       <c r="B9" s="1">
-        <v>42</v>
+        <v>1764</v>
       </c>
       <c r="C9" s="1">
-        <v>46</v>
+        <v>2116</v>
       </c>
       <c r="D9" s="1">
-        <v>45</v>
+        <v>2025</v>
       </c>
       <c r="E9" s="1">
-        <v>43</v>
+        <v>1849</v>
       </c>
       <c r="F9" s="1">
-        <v>51</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -604,19 +604,19 @@
         <v>83</v>
       </c>
       <c r="B10" s="1">
-        <v>52</v>
+        <v>2704</v>
       </c>
       <c r="C10" s="1">
-        <v>51</v>
+        <v>2601</v>
       </c>
       <c r="D10" s="1">
-        <v>51</v>
+        <v>2601</v>
       </c>
       <c r="E10" s="1">
-        <v>46</v>
+        <v>2116</v>
       </c>
       <c r="F10" s="1">
-        <v>53</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -624,19 +624,19 @@
         <v>93</v>
       </c>
       <c r="B11" s="1">
-        <v>57</v>
+        <v>3249</v>
       </c>
       <c r="C11" s="1">
-        <v>54</v>
+        <v>2916</v>
       </c>
       <c r="D11" s="1">
-        <v>67</v>
+        <v>4489</v>
       </c>
       <c r="E11" s="1">
-        <v>56</v>
+        <v>3136</v>
       </c>
       <c r="F11" s="1">
-        <v>59</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -644,19 +644,19 @@
         <v>103</v>
       </c>
       <c r="B12" s="1">
-        <v>65</v>
+        <v>4225</v>
       </c>
       <c r="C12" s="1">
-        <v>62</v>
+        <v>3844</v>
       </c>
       <c r="D12" s="1">
-        <v>63</v>
+        <v>3969</v>
       </c>
       <c r="E12" s="1">
-        <v>62</v>
+        <v>3844</v>
       </c>
       <c r="F12" s="1">
-        <v>60</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -664,19 +664,19 @@
         <v>113</v>
       </c>
       <c r="B13" s="1">
-        <v>71</v>
+        <v>5041</v>
       </c>
       <c r="C13" s="1">
-        <v>65</v>
+        <v>4225</v>
       </c>
       <c r="D13" s="1">
-        <v>73</v>
+        <v>5329</v>
       </c>
       <c r="E13" s="1">
-        <v>75</v>
+        <v>5625</v>
       </c>
       <c r="F13" s="1">
-        <v>70</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -684,19 +684,19 @@
         <v>123</v>
       </c>
       <c r="B14" s="1">
-        <v>69</v>
+        <v>4761</v>
       </c>
       <c r="C14" s="1">
-        <v>77</v>
+        <v>5929</v>
       </c>
       <c r="D14" s="1">
-        <v>75</v>
+        <v>5625</v>
       </c>
       <c r="E14" s="1">
-        <v>74</v>
+        <v>5476</v>
       </c>
       <c r="F14" s="1">
-        <v>80</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -704,19 +704,19 @@
         <v>133</v>
       </c>
       <c r="B15" s="1">
-        <v>76</v>
+        <v>5776</v>
       </c>
       <c r="C15" s="1">
-        <v>92</v>
+        <v>8464</v>
       </c>
       <c r="D15" s="1">
-        <v>84</v>
+        <v>7056</v>
       </c>
       <c r="E15" s="1">
-        <v>80</v>
+        <v>6400</v>
       </c>
       <c r="F15" s="1">
-        <v>90</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -724,19 +724,19 @@
         <v>143</v>
       </c>
       <c r="B16" s="1">
-        <v>90</v>
+        <v>8100</v>
       </c>
       <c r="C16" s="1">
-        <v>88</v>
+        <v>7744</v>
       </c>
       <c r="D16" s="1">
-        <v>84</v>
+        <v>7056</v>
       </c>
       <c r="E16" s="1">
-        <v>87</v>
+        <v>7569</v>
       </c>
       <c r="F16" s="1">
-        <v>86</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -744,19 +744,19 @@
         <v>154</v>
       </c>
       <c r="B17" s="1">
-        <v>99</v>
+        <v>9801</v>
       </c>
       <c r="C17" s="1">
-        <v>92</v>
+        <v>8464</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="1">
-        <v>91</v>
+        <v>8281</v>
       </c>
       <c r="F17" s="1">
-        <v>97</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -764,19 +764,19 @@
         <v>164</v>
       </c>
       <c r="B18" s="1">
-        <v>106</v>
+        <v>11236</v>
       </c>
       <c r="C18" s="1">
-        <v>106</v>
+        <v>11236</v>
       </c>
       <c r="D18" s="1">
-        <v>104</v>
+        <v>10816</v>
       </c>
       <c r="E18" s="1">
-        <v>106</v>
+        <v>11236</v>
       </c>
       <c r="F18" s="1">
-        <v>106</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -784,19 +784,19 @@
         <v>174</v>
       </c>
       <c r="B19" s="1">
-        <v>107</v>
+        <v>11449</v>
       </c>
       <c r="C19" s="1">
-        <v>101</v>
+        <v>10201</v>
       </c>
       <c r="D19" s="1">
-        <v>102</v>
+        <v>10404</v>
       </c>
       <c r="E19" s="1">
-        <v>103</v>
+        <v>10609</v>
       </c>
       <c r="F19" s="1">
-        <v>104</v>
+        <v>10816</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -804,19 +804,19 @@
         <v>184</v>
       </c>
       <c r="B20" s="1">
-        <v>120</v>
+        <v>14400</v>
       </c>
       <c r="C20" s="1">
-        <v>106</v>
+        <v>11236</v>
       </c>
       <c r="D20" s="1">
-        <v>119</v>
+        <v>14161</v>
       </c>
       <c r="E20" s="1">
-        <v>118</v>
+        <v>13924</v>
       </c>
       <c r="F20" s="1">
-        <v>113</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -824,19 +824,19 @@
         <v>194</v>
       </c>
       <c r="B21" s="1">
-        <v>112</v>
+        <v>12544</v>
       </c>
       <c r="C21" s="1">
-        <v>128</v>
+        <v>16384</v>
       </c>
       <c r="D21" s="1">
-        <v>115</v>
+        <v>13225</v>
       </c>
       <c r="E21" s="1">
-        <v>120</v>
+        <v>14400</v>
       </c>
       <c r="F21" s="1">
-        <v>118</v>
+        <v>13924</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -844,19 +844,19 @@
         <v>204</v>
       </c>
       <c r="B22" s="1">
-        <v>128</v>
+        <v>16384</v>
       </c>
       <c r="C22" s="1">
-        <v>129</v>
+        <v>16641</v>
       </c>
       <c r="D22" s="1">
-        <v>125</v>
+        <v>15625</v>
       </c>
       <c r="E22" s="1">
-        <v>126</v>
+        <v>15876</v>
       </c>
       <c r="F22" s="1">
-        <v>122</v>
+        <v>14884</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -864,19 +864,19 @@
         <v>214</v>
       </c>
       <c r="B23" s="1">
-        <v>143</v>
+        <v>20449</v>
       </c>
       <c r="C23" s="1">
-        <v>140</v>
+        <v>19600</v>
       </c>
       <c r="D23" s="1">
-        <v>133</v>
+        <v>17689</v>
       </c>
       <c r="E23" s="1">
-        <v>128</v>
+        <v>16384</v>
       </c>
       <c r="F23" s="1">
-        <v>120</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -884,19 +884,19 @@
         <v>224</v>
       </c>
       <c r="B24" s="1">
-        <v>142</v>
+        <v>20164</v>
       </c>
       <c r="C24" s="1">
-        <v>136</v>
+        <v>18496</v>
       </c>
       <c r="D24" s="1">
-        <v>136</v>
+        <v>18496</v>
       </c>
       <c r="E24" s="1">
-        <v>133</v>
+        <v>17689</v>
       </c>
       <c r="F24" s="1">
-        <v>142</v>
+        <v>20164</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -904,19 +904,19 @@
         <v>234</v>
       </c>
       <c r="B25" s="1">
-        <v>145</v>
+        <v>21025</v>
       </c>
       <c r="C25" s="1">
-        <v>144</v>
+        <v>20736</v>
       </c>
       <c r="D25" s="1">
-        <v>141</v>
+        <v>19881</v>
       </c>
       <c r="E25" s="1">
-        <v>145</v>
+        <v>21025</v>
       </c>
       <c r="F25" s="1">
-        <v>138</v>
+        <v>19044</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -924,19 +924,19 @@
         <v>244</v>
       </c>
       <c r="B26" s="1">
-        <v>139</v>
+        <v>19321</v>
       </c>
       <c r="C26" s="1">
-        <v>145</v>
+        <v>21025</v>
       </c>
       <c r="D26" s="1">
-        <v>161</v>
+        <v>25921</v>
       </c>
       <c r="E26" s="1">
-        <v>160</v>
+        <v>25600</v>
       </c>
       <c r="F26" s="1">
-        <v>147</v>
+        <v>21609</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -944,19 +944,19 @@
         <v>254</v>
       </c>
       <c r="B27" s="1">
-        <v>160</v>
+        <v>25600</v>
       </c>
       <c r="C27" s="1">
-        <v>155</v>
+        <v>24025</v>
       </c>
       <c r="D27" s="1">
-        <v>149</v>
+        <v>22201</v>
       </c>
       <c r="E27" s="1">
-        <v>167</v>
+        <v>27889</v>
       </c>
       <c r="F27" s="1">
-        <v>163</v>
+        <v>26569</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -964,19 +964,19 @@
         <v>264</v>
       </c>
       <c r="B28" s="1">
-        <v>166</v>
+        <v>27556</v>
       </c>
       <c r="C28" s="1">
-        <v>164</v>
+        <v>26896</v>
       </c>
       <c r="D28" s="1">
-        <v>172</v>
+        <v>29584</v>
       </c>
       <c r="E28" s="1">
-        <v>168</v>
+        <v>28224</v>
       </c>
       <c r="F28" s="1">
-        <v>155</v>
+        <v>24025</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -984,19 +984,19 @@
         <v>274</v>
       </c>
       <c r="B29" s="1">
-        <v>174</v>
+        <v>30276</v>
       </c>
       <c r="C29" s="1">
-        <v>180</v>
+        <v>32400</v>
       </c>
       <c r="D29" s="1">
-        <v>166</v>
+        <v>27556</v>
       </c>
       <c r="E29" s="1">
-        <v>179</v>
+        <v>32041</v>
       </c>
       <c r="F29" s="1">
-        <v>170</v>
+        <v>28900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1004,19 +1004,19 @@
         <v>284</v>
       </c>
       <c r="B30" s="1">
-        <v>177</v>
+        <v>31329</v>
       </c>
       <c r="C30" s="1">
-        <v>183</v>
+        <v>33489</v>
       </c>
       <c r="D30" s="1">
-        <v>168</v>
+        <v>28224</v>
       </c>
       <c r="E30" s="1">
-        <v>167</v>
+        <v>27889</v>
       </c>
       <c r="F30" s="1">
-        <v>172</v>
+        <v>29584</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1024,19 +1024,19 @@
         <v>295</v>
       </c>
       <c r="B31" s="1">
-        <v>187</v>
+        <v>34969</v>
       </c>
       <c r="C31" s="1">
-        <v>180</v>
+        <v>32400</v>
       </c>
       <c r="D31" s="1">
-        <v>176</v>
+        <v>30976</v>
       </c>
       <c r="E31" s="1">
-        <v>169</v>
+        <v>28561</v>
       </c>
       <c r="F31" s="1">
-        <v>191</v>
+        <v>36481</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1044,19 +1044,19 @@
         <v>305</v>
       </c>
       <c r="B32" s="1">
-        <v>182</v>
+        <v>33124</v>
       </c>
       <c r="C32" s="1">
-        <v>179</v>
+        <v>32041</v>
       </c>
       <c r="D32" s="1">
-        <v>207</v>
+        <v>42849</v>
       </c>
       <c r="E32" s="1">
-        <v>188</v>
+        <v>35344</v>
       </c>
       <c r="F32" s="1">
-        <v>187</v>
+        <v>34969</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1064,19 +1064,19 @@
         <v>315</v>
       </c>
       <c r="B33" s="1">
-        <v>191</v>
+        <v>36481</v>
       </c>
       <c r="C33" s="1">
-        <v>206</v>
+        <v>42436</v>
       </c>
       <c r="D33" s="1">
-        <v>208</v>
+        <v>43264</v>
       </c>
       <c r="E33" s="1">
-        <v>178</v>
+        <v>31684</v>
       </c>
       <c r="F33" s="1">
-        <v>191</v>
+        <v>36481</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1084,19 +1084,19 @@
         <v>325</v>
       </c>
       <c r="B34" s="1">
-        <v>218</v>
+        <v>47524</v>
       </c>
       <c r="C34" s="1">
-        <v>208</v>
+        <v>43264</v>
       </c>
       <c r="D34" s="1">
-        <v>220</v>
+        <v>48400</v>
       </c>
       <c r="E34" s="1">
-        <v>224</v>
+        <v>50176</v>
       </c>
       <c r="F34" s="1">
-        <v>204</v>
+        <v>41616</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1104,19 +1104,19 @@
         <v>335</v>
       </c>
       <c r="B35" s="1">
-        <v>209</v>
+        <v>43681</v>
       </c>
       <c r="C35" s="1">
-        <v>204</v>
+        <v>41616</v>
       </c>
       <c r="D35" s="1">
-        <v>215</v>
+        <v>46225</v>
       </c>
       <c r="E35" s="1">
-        <v>207</v>
+        <v>42849</v>
       </c>
       <c r="F35" s="1">
-        <v>224</v>
+        <v>50176</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1124,19 +1124,19 @@
         <v>345</v>
       </c>
       <c r="B36" s="1">
-        <v>219</v>
+        <v>47961</v>
       </c>
       <c r="C36" s="1">
-        <v>212</v>
+        <v>44944</v>
       </c>
       <c r="D36" s="1">
-        <v>216</v>
+        <v>46656</v>
       </c>
       <c r="E36" s="1">
-        <v>218</v>
+        <v>47524</v>
       </c>
       <c r="F36" s="1">
-        <v>215</v>
+        <v>46225</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1144,19 +1144,19 @@
         <v>355</v>
       </c>
       <c r="B37" s="1">
-        <v>215</v>
+        <v>46225</v>
       </c>
       <c r="C37" s="1">
-        <v>208</v>
+        <v>43264</v>
       </c>
       <c r="D37" s="1">
-        <v>218</v>
+        <v>47524</v>
       </c>
       <c r="E37" s="1">
-        <v>213</v>
+        <v>45369</v>
       </c>
       <c r="F37" s="1">
-        <v>225</v>
+        <v>50625</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1164,19 +1164,19 @@
         <v>365</v>
       </c>
       <c r="B38" s="1">
-        <v>220</v>
+        <v>48400</v>
       </c>
       <c r="C38" s="1">
-        <v>229</v>
+        <v>52441</v>
       </c>
       <c r="D38" s="1">
-        <v>212</v>
+        <v>44944</v>
       </c>
       <c r="E38" s="1">
-        <v>238</v>
+        <v>56644</v>
       </c>
       <c r="F38" s="1">
-        <v>222</v>
+        <v>49284</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1184,19 +1184,19 @@
         <v>375</v>
       </c>
       <c r="B39" s="1">
-        <v>237</v>
+        <v>56169</v>
       </c>
       <c r="C39" s="1">
-        <v>224</v>
+        <v>50176</v>
       </c>
       <c r="D39" s="1">
-        <v>244</v>
+        <v>59536</v>
       </c>
       <c r="E39" s="1">
-        <v>223</v>
+        <v>49729</v>
       </c>
       <c r="F39" s="1">
-        <v>228</v>
+        <v>51984</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1204,19 +1204,19 @@
         <v>385</v>
       </c>
       <c r="B40" s="1">
-        <v>234</v>
+        <v>54756</v>
       </c>
       <c r="C40" s="1">
-        <v>235</v>
+        <v>55225</v>
       </c>
       <c r="D40" s="1">
-        <v>239</v>
+        <v>57121</v>
       </c>
       <c r="E40" s="1">
-        <v>233</v>
+        <v>54289</v>
       </c>
       <c r="F40" s="1">
-        <v>242</v>
+        <v>58564</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1224,19 +1224,19 @@
         <v>395</v>
       </c>
       <c r="B41" s="1">
-        <v>241</v>
+        <v>58081</v>
       </c>
       <c r="C41" s="1">
-        <v>234</v>
+        <v>54756</v>
       </c>
       <c r="D41" s="1">
-        <v>231</v>
+        <v>53361</v>
       </c>
       <c r="E41" s="1">
-        <v>248</v>
+        <v>61504</v>
       </c>
       <c r="F41" s="1">
-        <v>249</v>
+        <v>62001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1244,19 +1244,19 @@
         <v>405</v>
       </c>
       <c r="B42" s="1">
-        <v>266</v>
+        <v>70756</v>
       </c>
       <c r="C42" s="1">
-        <v>259</v>
+        <v>67081</v>
       </c>
       <c r="D42" s="1">
-        <v>256</v>
+        <v>65536</v>
       </c>
       <c r="E42" s="1">
-        <v>262</v>
+        <v>68644</v>
       </c>
       <c r="F42" s="1">
-        <v>266</v>
+        <v>70756</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1264,19 +1264,19 @@
         <v>415</v>
       </c>
       <c r="B43" s="1">
-        <v>266</v>
+        <v>70756</v>
       </c>
       <c r="C43" s="1">
-        <v>259</v>
+        <v>67081</v>
       </c>
       <c r="D43" s="1">
-        <v>267</v>
+        <v>71289</v>
       </c>
       <c r="E43" s="1">
-        <v>260</v>
+        <v>67600</v>
       </c>
       <c r="F43" s="1">
-        <v>267</v>
+        <v>71289</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1284,19 +1284,19 @@
         <v>425</v>
       </c>
       <c r="B44" s="1">
-        <v>262</v>
+        <v>68644</v>
       </c>
       <c r="C44" s="1">
-        <v>273</v>
+        <v>74529</v>
       </c>
       <c r="D44" s="1">
-        <v>252</v>
+        <v>63504</v>
       </c>
       <c r="E44" s="1">
-        <v>266</v>
+        <v>70756</v>
       </c>
       <c r="F44" s="1">
-        <v>285</v>
+        <v>81225</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1304,19 +1304,19 @@
         <v>436</v>
       </c>
       <c r="B45" s="1">
-        <v>285</v>
+        <v>81225</v>
       </c>
       <c r="C45" s="1">
-        <v>266</v>
+        <v>70756</v>
       </c>
       <c r="D45" s="1">
-        <v>257</v>
+        <v>66049</v>
       </c>
       <c r="E45" s="1">
-        <v>278</v>
+        <v>77284</v>
       </c>
       <c r="F45" s="1">
-        <v>279</v>
+        <v>77841</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1324,19 +1324,19 @@
         <v>446</v>
       </c>
       <c r="B46" s="1">
-        <v>272</v>
+        <v>73984</v>
       </c>
       <c r="C46" s="1">
-        <v>268</v>
+        <v>71824</v>
       </c>
       <c r="D46" s="1">
-        <v>279</v>
+        <v>77841</v>
       </c>
       <c r="E46" s="1">
-        <v>275</v>
+        <v>75625</v>
       </c>
       <c r="F46" s="1">
-        <v>275</v>
+        <v>75625</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1344,19 +1344,19 @@
         <v>456</v>
       </c>
       <c r="B47" s="1">
-        <v>268</v>
+        <v>71824</v>
       </c>
       <c r="C47" s="1">
-        <v>275</v>
+        <v>75625</v>
       </c>
       <c r="D47" s="1">
-        <v>291</v>
+        <v>84681</v>
       </c>
       <c r="E47" s="1">
-        <v>282</v>
+        <v>79524</v>
       </c>
       <c r="F47" s="1">
-        <v>292</v>
+        <v>85264</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1364,19 +1364,19 @@
         <v>466</v>
       </c>
       <c r="B48" s="1">
-        <v>289</v>
+        <v>83521</v>
       </c>
       <c r="C48" s="1">
-        <v>299</v>
+        <v>89401</v>
       </c>
       <c r="D48" s="1">
-        <v>290</v>
+        <v>84100</v>
       </c>
       <c r="E48" s="1">
-        <v>284</v>
+        <v>80656</v>
       </c>
       <c r="F48" s="1">
-        <v>311</v>
+        <v>96721</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1384,19 +1384,19 @@
         <v>476</v>
       </c>
       <c r="B49" s="1">
-        <v>310</v>
+        <v>96100</v>
       </c>
       <c r="C49" s="1">
-        <v>292</v>
+        <v>85264</v>
       </c>
       <c r="D49" s="1">
-        <v>309</v>
+        <v>95481</v>
       </c>
       <c r="E49" s="1">
-        <v>309</v>
+        <v>95481</v>
       </c>
       <c r="F49" s="1">
-        <v>303</v>
+        <v>91809</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1404,19 +1404,19 @@
         <v>486</v>
       </c>
       <c r="B50" s="1">
-        <v>313</v>
+        <v>97969</v>
       </c>
       <c r="C50" s="1">
-        <v>301</v>
+        <v>90601</v>
       </c>
       <c r="D50" s="1">
-        <v>300</v>
+        <v>90000</v>
       </c>
       <c r="E50" s="1">
-        <v>295</v>
+        <v>87025</v>
       </c>
       <c r="F50" s="1">
-        <v>307</v>
+        <v>94249</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1424,19 +1424,19 @@
         <v>496</v>
       </c>
       <c r="B51" s="1">
-        <v>312</v>
+        <v>97344</v>
       </c>
       <c r="C51" s="1">
-        <v>290</v>
+        <v>84100</v>
       </c>
       <c r="D51" s="1">
-        <v>304</v>
+        <v>92416</v>
       </c>
       <c r="E51" s="1">
-        <v>316</v>
+        <v>99856</v>
       </c>
       <c r="F51" s="1">
-        <v>316</v>
+        <v>99856</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1444,19 +1444,19 @@
         <v>506</v>
       </c>
       <c r="B52" s="1">
-        <v>313</v>
+        <v>97969</v>
       </c>
       <c r="C52" s="1">
-        <v>311</v>
+        <v>96721</v>
       </c>
       <c r="D52" s="1">
-        <v>306</v>
+        <v>93636</v>
       </c>
       <c r="E52" s="1">
-        <v>324</v>
+        <v>104976</v>
       </c>
       <c r="F52" s="1">
-        <v>311</v>
+        <v>96721</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1464,19 +1464,19 @@
         <v>516</v>
       </c>
       <c r="B53" s="1">
-        <v>323</v>
+        <v>104329</v>
       </c>
       <c r="C53" s="1">
-        <v>326</v>
+        <v>106276</v>
       </c>
       <c r="D53" s="1">
-        <v>334</v>
+        <v>111556</v>
       </c>
       <c r="E53" s="1">
-        <v>328</v>
+        <v>107584</v>
       </c>
       <c r="F53" s="1">
-        <v>318</v>
+        <v>101124</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1484,19 +1484,19 @@
         <v>526</v>
       </c>
       <c r="B54" s="1">
-        <v>337</v>
+        <v>113569</v>
       </c>
       <c r="C54" s="1">
-        <v>325</v>
+        <v>105625</v>
       </c>
       <c r="D54" s="1">
-        <v>311</v>
+        <v>96721</v>
       </c>
       <c r="E54" s="1">
-        <v>319</v>
+        <v>101761</v>
       </c>
       <c r="F54" s="1">
-        <v>318</v>
+        <v>101124</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1504,19 +1504,19 @@
         <v>536</v>
       </c>
       <c r="B55" s="1">
-        <v>327</v>
+        <v>106929</v>
       </c>
       <c r="C55" s="1">
-        <v>343</v>
+        <v>117649</v>
       </c>
       <c r="D55" s="1">
-        <v>333</v>
+        <v>110889</v>
       </c>
       <c r="E55" s="1">
-        <v>327</v>
+        <v>106929</v>
       </c>
       <c r="F55" s="1">
-        <v>327</v>
+        <v>106929</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1524,19 +1524,19 @@
         <v>546</v>
       </c>
       <c r="B56" s="1">
-        <v>324</v>
+        <v>104976</v>
       </c>
       <c r="C56" s="1">
-        <v>360</v>
+        <v>129600</v>
       </c>
       <c r="D56" s="1">
-        <v>346</v>
+        <v>119716</v>
       </c>
       <c r="E56" s="1">
-        <v>335</v>
+        <v>112225</v>
       </c>
       <c r="F56" s="1">
-        <v>342</v>
+        <v>116964</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1544,19 +1544,19 @@
         <v>556</v>
       </c>
       <c r="B57" s="1">
-        <v>348</v>
+        <v>121104</v>
       </c>
       <c r="C57" s="1">
-        <v>349</v>
+        <v>121801</v>
       </c>
       <c r="D57" s="1">
-        <v>337</v>
+        <v>113569</v>
       </c>
       <c r="E57" s="1">
-        <v>345</v>
+        <v>119025</v>
       </c>
       <c r="F57" s="1">
-        <v>344</v>
+        <v>118336</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1564,19 +1564,19 @@
         <v>566</v>
       </c>
       <c r="B58" s="1">
-        <v>352</v>
+        <v>123904</v>
       </c>
       <c r="C58" s="1">
-        <v>349</v>
+        <v>121801</v>
       </c>
       <c r="D58" s="1">
-        <v>363</v>
+        <v>131769</v>
       </c>
       <c r="E58" s="1">
-        <v>357</v>
+        <v>127449</v>
       </c>
       <c r="F58" s="1">
-        <v>357</v>
+        <v>127449</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1584,19 +1584,19 @@
         <v>577</v>
       </c>
       <c r="B59" s="1">
-        <v>347</v>
+        <v>120409</v>
       </c>
       <c r="C59" s="1">
-        <v>374</v>
+        <v>139876</v>
       </c>
       <c r="D59" s="1">
-        <v>352</v>
+        <v>123904</v>
       </c>
       <c r="E59" s="1">
-        <v>361</v>
+        <v>130321</v>
       </c>
       <c r="F59" s="1">
-        <v>356</v>
+        <v>126736</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1604,19 +1604,19 @@
         <v>587</v>
       </c>
       <c r="B60" s="1">
-        <v>361</v>
+        <v>130321</v>
       </c>
       <c r="C60" s="1">
-        <v>360</v>
+        <v>129600</v>
       </c>
       <c r="D60" s="1">
-        <v>364</v>
+        <v>132496</v>
       </c>
       <c r="E60" s="1">
-        <v>378</v>
+        <v>142884</v>
       </c>
       <c r="F60" s="1">
-        <v>365</v>
+        <v>133225</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1624,19 +1624,19 @@
         <v>597</v>
       </c>
       <c r="B61" s="1">
-        <v>360</v>
+        <v>129600</v>
       </c>
       <c r="C61" s="1">
-        <v>372</v>
+        <v>138384</v>
       </c>
       <c r="D61" s="1">
-        <v>386</v>
+        <v>148996</v>
       </c>
       <c r="E61" s="1">
-        <v>366</v>
+        <v>133956</v>
       </c>
       <c r="F61" s="1">
-        <v>356</v>
+        <v>126736</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1644,19 +1644,19 @@
         <v>607</v>
       </c>
       <c r="B62" s="1">
-        <v>375</v>
+        <v>140625</v>
       </c>
       <c r="C62" s="1">
-        <v>381</v>
+        <v>145161</v>
       </c>
       <c r="D62" s="1">
-        <v>373</v>
+        <v>139129</v>
       </c>
       <c r="E62" s="1">
-        <v>356</v>
+        <v>126736</v>
       </c>
       <c r="F62" s="1">
-        <v>382</v>
+        <v>145924</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1664,19 +1664,19 @@
         <v>617</v>
       </c>
       <c r="B63" s="1">
-        <v>392</v>
+        <v>153664</v>
       </c>
       <c r="C63" s="1">
-        <v>372</v>
+        <v>138384</v>
       </c>
       <c r="D63" s="1">
-        <v>394</v>
+        <v>155236</v>
       </c>
       <c r="E63" s="1">
-        <v>379</v>
+        <v>143641</v>
       </c>
       <c r="F63" s="1">
-        <v>384</v>
+        <v>147456</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1684,19 +1684,19 @@
         <v>627</v>
       </c>
       <c r="B64" s="1">
-        <v>408</v>
+        <v>166464</v>
       </c>
       <c r="C64" s="1">
-        <v>392</v>
+        <v>153664</v>
       </c>
       <c r="D64" s="1">
-        <v>388</v>
+        <v>150544</v>
       </c>
       <c r="E64" s="1">
-        <v>389</v>
+        <v>151321</v>
       </c>
       <c r="F64" s="1">
-        <v>381</v>
+        <v>145161</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1704,19 +1704,19 @@
         <v>637</v>
       </c>
       <c r="B65" s="1">
-        <v>401</v>
+        <v>160801</v>
       </c>
       <c r="C65" s="1">
-        <v>404</v>
+        <v>163216</v>
       </c>
       <c r="D65" s="1">
-        <v>406</v>
+        <v>164836</v>
       </c>
       <c r="E65" s="1">
-        <v>409</v>
+        <v>167281</v>
       </c>
       <c r="F65" s="1">
-        <v>382</v>
+        <v>145924</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1724,19 +1724,19 @@
         <v>647</v>
       </c>
       <c r="B66" s="1">
-        <v>414</v>
+        <v>171396</v>
       </c>
       <c r="C66" s="1">
-        <v>412</v>
+        <v>169744</v>
       </c>
       <c r="D66" s="1">
-        <v>406</v>
+        <v>164836</v>
       </c>
       <c r="E66" s="1">
-        <v>385</v>
+        <v>148225</v>
       </c>
       <c r="F66" s="1">
-        <v>413</v>
+        <v>170569</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1744,19 +1744,19 @@
         <v>657</v>
       </c>
       <c r="B67" s="1">
-        <v>419</v>
+        <v>175561</v>
       </c>
       <c r="C67" s="1">
-        <v>430</v>
+        <v>184900</v>
       </c>
       <c r="D67" s="1">
-        <v>409</v>
+        <v>167281</v>
       </c>
       <c r="E67" s="1">
-        <v>408</v>
+        <v>166464</v>
       </c>
       <c r="F67" s="1">
-        <v>387</v>
+        <v>149769</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1764,19 +1764,19 @@
         <v>667</v>
       </c>
       <c r="B68" s="1">
-        <v>433</v>
+        <v>187489</v>
       </c>
       <c r="C68" s="1">
-        <v>420</v>
+        <v>176400</v>
       </c>
       <c r="D68" s="1">
-        <v>423</v>
+        <v>178929</v>
       </c>
       <c r="E68" s="1">
-        <v>439</v>
+        <v>192721</v>
       </c>
       <c r="F68" s="1">
-        <v>423</v>
+        <v>178929</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1784,19 +1784,19 @@
         <v>677</v>
       </c>
       <c r="B69" s="1">
-        <v>416</v>
+        <v>173056</v>
       </c>
       <c r="C69" s="1">
-        <v>411</v>
+        <v>168921</v>
       </c>
       <c r="D69" s="1">
-        <v>424</v>
+        <v>179776</v>
       </c>
       <c r="E69" s="1">
-        <v>416</v>
+        <v>173056</v>
       </c>
       <c r="F69" s="1">
-        <v>437</v>
+        <v>190969</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1804,19 +1804,19 @@
         <v>687</v>
       </c>
       <c r="B70" s="1">
-        <v>438</v>
+        <v>191844</v>
       </c>
       <c r="C70" s="1">
-        <v>429</v>
+        <v>184041</v>
       </c>
       <c r="D70" s="1">
-        <v>412</v>
+        <v>169744</v>
       </c>
       <c r="E70" s="1">
-        <v>437</v>
+        <v>190969</v>
       </c>
       <c r="F70" s="1">
-        <v>428</v>
+        <v>183184</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1824,19 +1824,19 @@
         <v>697</v>
       </c>
       <c r="B71" s="1">
-        <v>444</v>
+        <v>197136</v>
       </c>
       <c r="C71" s="1">
-        <v>434</v>
+        <v>188356</v>
       </c>
       <c r="D71" s="1">
-        <v>431</v>
+        <v>185761</v>
       </c>
       <c r="E71" s="1">
-        <v>430</v>
+        <v>184900</v>
       </c>
       <c r="F71" s="1">
-        <v>429</v>
+        <v>184041</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1844,19 +1844,19 @@
         <v>707</v>
       </c>
       <c r="B72" s="1">
-        <v>433</v>
+        <v>187489</v>
       </c>
       <c r="C72" s="1">
-        <v>414</v>
+        <v>171396</v>
       </c>
       <c r="D72" s="1">
-        <v>449</v>
+        <v>201601</v>
       </c>
       <c r="E72" s="1">
-        <v>437</v>
+        <v>190969</v>
       </c>
       <c r="F72" s="1">
-        <v>446</v>
+        <v>198916</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1864,19 +1864,19 @@
         <v>718</v>
       </c>
       <c r="B73" s="1">
-        <v>451</v>
+        <v>203401</v>
       </c>
       <c r="C73" s="1">
-        <v>455</v>
+        <v>207025</v>
       </c>
       <c r="D73" s="1">
-        <v>428</v>
+        <v>183184</v>
       </c>
       <c r="E73" s="1">
-        <v>463</v>
+        <v>214369</v>
       </c>
       <c r="F73" s="1">
-        <v>460</v>
+        <v>211600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1884,19 +1884,19 @@
         <v>728</v>
       </c>
       <c r="B74" s="1">
-        <v>459</v>
+        <v>210681</v>
       </c>
       <c r="C74" s="1">
-        <v>441</v>
+        <v>194481</v>
       </c>
       <c r="D74" s="1">
-        <v>464</v>
+        <v>215296</v>
       </c>
       <c r="E74" s="1">
-        <v>465</v>
+        <v>216225</v>
       </c>
       <c r="F74" s="1">
-        <v>444</v>
+        <v>197136</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1904,19 +1904,19 @@
         <v>738</v>
       </c>
       <c r="B75" s="1">
-        <v>464</v>
+        <v>215296</v>
       </c>
       <c r="C75" s="1">
-        <v>454</v>
+        <v>206116</v>
       </c>
       <c r="D75" s="1">
-        <v>461</v>
+        <v>212521</v>
       </c>
       <c r="E75" s="1">
-        <v>460</v>
+        <v>211600</v>
       </c>
       <c r="F75" s="1">
-        <v>457</v>
+        <v>208849</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1924,19 +1924,19 @@
         <v>748</v>
       </c>
       <c r="B76" s="1">
-        <v>466</v>
+        <v>217156</v>
       </c>
       <c r="C76" s="1">
-        <v>454</v>
+        <v>206116</v>
       </c>
       <c r="D76" s="1">
-        <v>471</v>
+        <v>221841</v>
       </c>
       <c r="E76" s="1">
-        <v>466</v>
+        <v>217156</v>
       </c>
       <c r="F76" s="1">
-        <v>480</v>
+        <v>230400</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1944,19 +1944,19 @@
         <v>758</v>
       </c>
       <c r="B77" s="1">
-        <v>470</v>
+        <v>220900</v>
       </c>
       <c r="C77" s="1">
-        <v>498</v>
+        <v>248004</v>
       </c>
       <c r="D77" s="1">
-        <v>479</v>
+        <v>229441</v>
       </c>
       <c r="E77" s="1">
-        <v>467</v>
+        <v>218089</v>
       </c>
       <c r="F77" s="1">
-        <v>458</v>
+        <v>209764</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1964,19 +1964,19 @@
         <v>768</v>
       </c>
       <c r="B78" s="1">
-        <v>450</v>
+        <v>202500</v>
       </c>
       <c r="C78" s="1">
-        <v>478</v>
+        <v>228484</v>
       </c>
       <c r="D78" s="1">
-        <v>473</v>
+        <v>223729</v>
       </c>
       <c r="E78" s="1">
-        <v>485</v>
+        <v>235225</v>
       </c>
       <c r="F78" s="1">
-        <v>466</v>
+        <v>217156</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1984,19 +1984,19 @@
         <v>778</v>
       </c>
       <c r="B79" s="1">
-        <v>487</v>
+        <v>237169</v>
       </c>
       <c r="C79" s="1">
-        <v>475</v>
+        <v>225625</v>
       </c>
       <c r="D79" s="1">
-        <v>478</v>
+        <v>228484</v>
       </c>
       <c r="E79" s="1">
-        <v>510</v>
+        <v>260100</v>
       </c>
       <c r="F79" s="1">
-        <v>479</v>
+        <v>229441</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2004,19 +2004,19 @@
         <v>788</v>
       </c>
       <c r="B80" s="1">
-        <v>477</v>
+        <v>227529</v>
       </c>
       <c r="C80" s="1">
-        <v>509</v>
+        <v>259081</v>
       </c>
       <c r="D80" s="1">
-        <v>496</v>
+        <v>246016</v>
       </c>
       <c r="E80" s="1">
-        <v>473</v>
+        <v>223729</v>
       </c>
       <c r="F80" s="1">
-        <v>487</v>
+        <v>237169</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2024,19 +2024,19 @@
         <v>798</v>
       </c>
       <c r="B81" s="1">
-        <v>493</v>
+        <v>243049</v>
       </c>
       <c r="C81" s="1">
-        <v>503</v>
+        <v>253009</v>
       </c>
       <c r="D81" s="1">
-        <v>507</v>
+        <v>257049</v>
       </c>
       <c r="E81" s="1">
-        <v>499</v>
+        <v>249001</v>
       </c>
       <c r="F81" s="1">
-        <v>506</v>
+        <v>256036</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2044,19 +2044,19 @@
         <v>808</v>
       </c>
       <c r="B82" s="1">
-        <v>517</v>
+        <v>267289</v>
       </c>
       <c r="C82" s="1">
-        <v>499</v>
+        <v>249001</v>
       </c>
       <c r="D82" s="1">
-        <v>502</v>
+        <v>252004</v>
       </c>
       <c r="E82" s="1">
-        <v>511</v>
+        <v>261121</v>
       </c>
       <c r="F82" s="1">
-        <v>513</v>
+        <v>263169</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2064,19 +2064,19 @@
         <v>818</v>
       </c>
       <c r="B83" s="1">
-        <v>494</v>
+        <v>244036</v>
       </c>
       <c r="C83" s="1">
-        <v>523</v>
+        <v>273529</v>
       </c>
       <c r="D83" s="1">
-        <v>512</v>
+        <v>262144</v>
       </c>
       <c r="E83" s="1">
-        <v>524</v>
+        <v>274576</v>
       </c>
       <c r="F83" s="1">
-        <v>509</v>
+        <v>259081</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2084,19 +2084,19 @@
         <v>828</v>
       </c>
       <c r="B84" s="1">
-        <v>533</v>
+        <v>284089</v>
       </c>
       <c r="C84" s="1">
-        <v>498</v>
+        <v>248004</v>
       </c>
       <c r="D84" s="1">
-        <v>512</v>
+        <v>262144</v>
       </c>
       <c r="E84" s="1">
-        <v>523</v>
+        <v>273529</v>
       </c>
       <c r="F84" s="1">
-        <v>512</v>
+        <v>262144</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2104,19 +2104,19 @@
         <v>838</v>
       </c>
       <c r="B85" s="1">
-        <v>518</v>
+        <v>268324</v>
       </c>
       <c r="C85" s="1">
-        <v>519</v>
+        <v>269361</v>
       </c>
       <c r="D85" s="1">
-        <v>534</v>
+        <v>285156</v>
       </c>
       <c r="E85" s="1">
-        <v>518</v>
+        <v>268324</v>
       </c>
       <c r="F85" s="1">
-        <v>521</v>
+        <v>271441</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2124,19 +2124,19 @@
         <v>848</v>
       </c>
       <c r="B86" s="1">
-        <v>536</v>
+        <v>287296</v>
       </c>
       <c r="C86" s="1">
-        <v>555</v>
+        <v>308025</v>
       </c>
       <c r="D86" s="1">
-        <v>519</v>
+        <v>269361</v>
       </c>
       <c r="E86" s="1">
-        <v>551</v>
+        <v>303601</v>
       </c>
       <c r="F86" s="1">
-        <v>566</v>
+        <v>320356</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2144,19 +2144,19 @@
         <v>859</v>
       </c>
       <c r="B87" s="1">
-        <v>545</v>
+        <v>297025</v>
       </c>
       <c r="C87" s="1">
-        <v>545</v>
+        <v>297025</v>
       </c>
       <c r="D87" s="1">
-        <v>543</v>
+        <v>294849</v>
       </c>
       <c r="E87" s="1">
-        <v>537</v>
+        <v>288369</v>
       </c>
       <c r="F87" s="1">
-        <v>527</v>
+        <v>277729</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2164,19 +2164,19 @@
         <v>869</v>
       </c>
       <c r="B88" s="1">
-        <v>532</v>
+        <v>283024</v>
       </c>
       <c r="C88" s="1">
-        <v>548</v>
+        <v>300304</v>
       </c>
       <c r="D88" s="1">
-        <v>553</v>
+        <v>305809</v>
       </c>
       <c r="E88" s="1">
-        <v>535</v>
+        <v>286225</v>
       </c>
       <c r="F88" s="1">
-        <v>531</v>
+        <v>281961</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2184,19 +2184,19 @@
         <v>879</v>
       </c>
       <c r="B89" s="1">
-        <v>550</v>
+        <v>302500</v>
       </c>
       <c r="C89" s="1">
-        <v>544</v>
+        <v>295936</v>
       </c>
       <c r="D89" s="1">
-        <v>542</v>
+        <v>293764</v>
       </c>
       <c r="E89" s="1">
-        <v>555</v>
+        <v>308025</v>
       </c>
       <c r="F89" s="1">
-        <v>543</v>
+        <v>294849</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2204,19 +2204,19 @@
         <v>889</v>
       </c>
       <c r="B90" s="1">
-        <v>544</v>
+        <v>295936</v>
       </c>
       <c r="C90" s="1">
-        <v>549</v>
+        <v>301401</v>
       </c>
       <c r="D90" s="1">
-        <v>566</v>
+        <v>320356</v>
       </c>
       <c r="E90" s="1">
-        <v>539</v>
+        <v>290521</v>
       </c>
       <c r="F90" s="1">
-        <v>553</v>
+        <v>305809</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2224,19 +2224,19 @@
         <v>899</v>
       </c>
       <c r="B91" s="1">
-        <v>558</v>
+        <v>311364</v>
       </c>
       <c r="C91" s="1">
-        <v>537</v>
+        <v>288369</v>
       </c>
       <c r="D91" s="1">
-        <v>554</v>
+        <v>306916</v>
       </c>
       <c r="E91" s="1">
-        <v>568</v>
+        <v>322624</v>
       </c>
       <c r="F91" s="1">
-        <v>566</v>
+        <v>320356</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2244,19 +2244,19 @@
         <v>909</v>
       </c>
       <c r="B92" s="1">
-        <v>583</v>
+        <v>339889</v>
       </c>
       <c r="C92" s="1">
-        <v>572</v>
+        <v>327184</v>
       </c>
       <c r="D92" s="1">
-        <v>555</v>
+        <v>308025</v>
       </c>
       <c r="E92" s="1">
-        <v>576</v>
+        <v>331776</v>
       </c>
       <c r="F92" s="1">
-        <v>565</v>
+        <v>319225</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2264,19 +2264,19 @@
         <v>919</v>
       </c>
       <c r="B93" s="1">
-        <v>564</v>
+        <v>318096</v>
       </c>
       <c r="C93" s="1">
-        <v>569</v>
+        <v>323761</v>
       </c>
       <c r="D93" s="1">
-        <v>567</v>
+        <v>321489</v>
       </c>
       <c r="E93" s="1">
-        <v>555</v>
+        <v>308025</v>
       </c>
       <c r="F93" s="1">
-        <v>580</v>
+        <v>336400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2284,19 +2284,19 @@
         <v>929</v>
       </c>
       <c r="B94" s="1">
-        <v>583</v>
+        <v>339889</v>
       </c>
       <c r="C94" s="1">
-        <v>579</v>
+        <v>335241</v>
       </c>
       <c r="D94" s="1">
-        <v>577</v>
+        <v>332929</v>
       </c>
       <c r="E94" s="1">
-        <v>607</v>
+        <v>368449</v>
       </c>
       <c r="F94" s="1">
-        <v>577</v>
+        <v>332929</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2304,19 +2304,19 @@
         <v>939</v>
       </c>
       <c r="B95" s="1">
-        <v>587</v>
+        <v>344569</v>
       </c>
       <c r="C95" s="1">
-        <v>604</v>
+        <v>364816</v>
       </c>
       <c r="D95" s="1">
-        <v>597</v>
+        <v>356409</v>
       </c>
       <c r="E95" s="1">
-        <v>586</v>
+        <v>343396</v>
       </c>
       <c r="F95" s="1">
-        <v>588</v>
+        <v>345744</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2324,19 +2324,19 @@
         <v>949</v>
       </c>
       <c r="B96" s="1">
-        <v>626</v>
+        <v>391876</v>
       </c>
       <c r="C96" s="1">
-        <v>595</v>
+        <v>354025</v>
       </c>
       <c r="D96" s="1">
-        <v>579</v>
+        <v>335241</v>
       </c>
       <c r="E96" s="1">
-        <v>588</v>
+        <v>345744</v>
       </c>
       <c r="F96" s="1">
-        <v>574</v>
+        <v>329476</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2344,19 +2344,19 @@
         <v>959</v>
       </c>
       <c r="B97" s="1">
-        <v>587</v>
+        <v>344569</v>
       </c>
       <c r="C97" s="1">
-        <v>594</v>
+        <v>352836</v>
       </c>
       <c r="D97" s="1">
-        <v>597</v>
+        <v>356409</v>
       </c>
       <c r="E97" s="1">
-        <v>620</v>
+        <v>384400</v>
       </c>
       <c r="F97" s="1">
-        <v>610</v>
+        <v>372100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2364,19 +2364,19 @@
         <v>969</v>
       </c>
       <c r="B98" s="1">
-        <v>614</v>
+        <v>376996</v>
       </c>
       <c r="C98" s="1">
-        <v>625</v>
+        <v>390625</v>
       </c>
       <c r="D98" s="1">
-        <v>612</v>
+        <v>374544</v>
       </c>
       <c r="E98" s="1">
-        <v>598</v>
+        <v>357604</v>
       </c>
       <c r="F98" s="1">
-        <v>613</v>
+        <v>375769</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2384,19 +2384,19 @@
         <v>979</v>
       </c>
       <c r="B99" s="1">
-        <v>609</v>
+        <v>370881</v>
       </c>
       <c r="C99" s="1">
-        <v>603</v>
+        <v>363609</v>
       </c>
       <c r="D99" s="1">
-        <v>594</v>
+        <v>352836</v>
       </c>
       <c r="E99" s="1">
-        <v>607</v>
+        <v>368449</v>
       </c>
       <c r="F99" s="1">
-        <v>619</v>
+        <v>383161</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2404,19 +2404,19 @@
         <v>989</v>
       </c>
       <c r="B100" s="1">
-        <v>613</v>
+        <v>375769</v>
       </c>
       <c r="C100" s="1">
-        <v>616</v>
+        <v>379456</v>
       </c>
       <c r="D100" s="1">
-        <v>614</v>
+        <v>376996</v>
       </c>
       <c r="E100" s="1">
-        <v>615</v>
+        <v>378225</v>
       </c>
       <c r="F100" s="1">
-        <v>605</v>
+        <v>366025</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2424,19 +2424,19 @@
         <v>1000</v>
       </c>
       <c r="B101" s="1">
-        <v>615</v>
+        <v>378225</v>
       </c>
       <c r="C101" s="1">
-        <v>627</v>
+        <v>393129</v>
       </c>
       <c r="D101" s="1">
-        <v>611</v>
+        <v>373321</v>
       </c>
       <c r="E101" s="1">
-        <v>631</v>
+        <v>398161</v>
       </c>
       <c r="F101" s="1">
-        <v>643</v>
+        <v>413449</v>
       </c>
     </row>
   </sheetData>
